--- a/Modèle-audit-SEO (1).xlsx
+++ b/Modèle-audit-SEO (1).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Référence</t>
   </si>
   <si>
-    <t xml:space="preserve">(SEO ou accessiblité ?)</t>
+    <t xml:space="preserve">(SEO ou accessibilité ?)</t>
   </si>
   <si>
     <t xml:space="preserve">SEO</t>
@@ -125,6 +125,33 @@
   </si>
   <si>
     <t xml:space="preserve">Ne pas utiliser d’image pour le texte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semantique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balise structurelle header, nav, footer non utilisé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page2 passe pas validateur w3c </t>
+  </si>
+  <si>
+    <t xml:space="preserve">propriété non valide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titre page2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titre de la page Contact trop generique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilise un titre adapte a la page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propriété clip obsoléte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">propriété clip en cours d’éradication, peut faire cesser de fonctionner le site</t>
   </si>
 </sst>
 </file>
@@ -357,15 +384,15 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="10.57"/>
@@ -551,15 +578,54 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>36</v>
+      </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>38</v>
+      </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>41</v>
+      </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
